--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F58F389D-7C14-4C8E-815E-4D19EC2360D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e12b259701ec5842/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9A624A97-6520-4053-BEAD-D9BCBB5397D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B98919-74E2-4F95-A810-0944828CCECB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A000526C-4FEC-4194-A90F-787729649760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -47,13 +51,10 @@
     <t>Invalid</t>
   </si>
   <si>
+    <t>a1234</t>
+  </si>
+  <si>
     <t>abcd</t>
-  </si>
-  <si>
-    <t>visual_user</t>
-  </si>
-  <si>
-    <t>dfds</t>
   </si>
   <si>
     <t>problem_user</t>
@@ -414,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7761B3FB-8B81-45DC-860C-12C818571B35}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
@@ -450,11 +451,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -462,10 +463,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -473,13 +474,45 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1234</v>
+      </c>
+      <c r="B9">
+        <v>1234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
